--- a/results/I3_N5_M3_T45_C100_DepLowerLeft_s4_res.xlsx
+++ b/results/I3_N5_M3_T45_C100_DepLowerLeft_s4_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>885.4081981687476</v>
+        <v>455.8781981698167</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.517000198364258</v>
+        <v>1.625999927520752</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>45.8781981698167</v>
+        <v>45.87819816981671</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>738.6899999989309</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>100.84</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -758,7 +758,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -769,7 +769,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -780,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>40.33845519167733</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -890,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>36.03034756122318</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>37.19455318383374</v>
+        <v>16.61595173195241</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>42.68109939842173</v>
       </c>
     </row>
     <row r="8">
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>107.9950000000117</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>105.5100000000075</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>104.66500000001</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>104.5050000000101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -1117,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>96.60500000000684</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -1128,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>80.51000000003842</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13">
@@ -1139,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>82.97000000003572</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14">
@@ -1150,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>94.63500000004025</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
@@ -1161,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>93.47500000004038</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
@@ -1172,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>85.27000000004045</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17">
@@ -1183,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>111.9900000000074</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18">
@@ -1194,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>117.045000000005</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
@@ -1205,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>115.3250000000079</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20">
@@ -1216,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>112.3300000000058</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21">
@@ -1227,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>110.3950000000067</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>142.9849999999023</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23">
@@ -1249,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>153.2849999998998</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24">
@@ -1260,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>157.2949999999036</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25">
@@ -1271,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>166.6849999999031</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26">
@@ -1282,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>159.3349999998954</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27">
@@ -1293,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>59.89500000000601</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
@@ -1304,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>63.82000000000543</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29">
@@ -1315,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>63.17500000000725</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30">
@@ -1326,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>62.68500000000464</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31">
@@ -1337,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>61.9</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32">
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>107.9950000000408</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33">
@@ -1359,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>105.5100000000348</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34">
@@ -1370,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>104.6650000000427</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35">
@@ -1381,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>104.5050000000411</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36">
@@ -1392,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>96.60500000003961</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37">
@@ -1403,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9849999998582</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38">
@@ -1414,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>153.2849999998556</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39">
@@ -1425,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>157.2949999998631</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40">
@@ -1436,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>166.6849999998589</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41">
@@ -1447,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>159.3349999998512</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42">
@@ -1458,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>111.9900000000074</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43">
@@ -1469,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>117.045000000005</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44">
@@ -1480,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>115.3250000000079</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45">
@@ -1491,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>112.3300000000058</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46">
@@ -1502,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>110.3950000000067</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1549,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>7.995000000039965</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1560,7 +1560,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.510000000033926</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -1571,7 +1571,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4.665000000041744</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
@@ -1582,7 +1582,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>4.50500000004007</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -1593,7 +1593,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
@@ -1604,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>42.98499999985614</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -1615,7 +1615,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>53.2849999998536</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1626,7 +1626,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>57.29499999986109</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1637,7 +1637,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>66.68499999985687</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -1648,7 +1648,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>59.33499999984923</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1659,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>11.99000000000743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1670,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>17.04500000000502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1681,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>15.32500000000786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1692,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>12.33000000000582</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1703,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>10.39500000000669</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1805,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1816,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1827,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1838,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1849,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1860,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1871,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1882,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>4.855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1893,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>4.215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1904,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>7.485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1915,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1926,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1937,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1948,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -1959,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1970,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1981,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>3.945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1992,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>7.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2003,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2014,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.55</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2028,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2066,7 +2066,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2088,7 +2088,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2099,10 +2099,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2110,10 +2110,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2121,10 +2121,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2132,10 +2132,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2143,10 +2143,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2154,56 +2154,12 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="n">
         <v>1</v>
       </c>
     </row>
